--- a/test_data.xlsx
+++ b/test_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M_Thiruveedula\Downloads\Code Tester\NLP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C75BFC-C6CE-4999-9FBA-5217B544CE7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31BFB473-1A9B-4CD5-BD9E-70C3AD312F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8FB334BB-47B3-4FEC-B82F-E83274BDE035}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>I have applied for a vehicle loan but so far the status of my loan application is not moving an inch. It’s been two weeks since I contacted your team. Your sales execution is out of touch and I am losing the offer from vehicle company. Please lodge my compliant to take this to closure status</t>
   </si>
@@ -53,26 +53,41 @@
     <t>body</t>
   </si>
   <si>
-    <t>label</t>
-  </si>
-  <si>
-    <t>Debt Collection</t>
-  </si>
-  <si>
-    <t>Vehicle Loan</t>
-  </si>
-  <si>
-    <t>Mortgage</t>
-  </si>
-  <si>
-    <t>Credit card</t>
+    <t>I am writing to dispute a debt that your team has been trying to collect from me. I do not recognize this debt and would like to request more information about it. Please provide me with detailed documentation so that I can investigate this matter further.</t>
+  </si>
+  <si>
+    <t>I have been receiving constant calls and messages from your team regarding a debt that I do not recognize. I have requested proof of the debt, but your team has not provided any evidence. Please provide me with the necessary documentation or cease all communication.</t>
+  </si>
+  <si>
+    <t>I have received multiple letters from your company demanding payment for a debt that I believe to be incorrect. I have tried to reach out to your team, but have not received any response. Please stop contacting me about this debt until we can resolve this issue.</t>
+  </si>
+  <si>
+    <t>I am writing in response to the numerous phone calls I have been receiving from your team regarding a pending debt that I supposedly owe to your company. Unfortunately, I do not have the means to pay this debt at this time. I would appreciate it if you could cease all further communication with me until I am able to make arrangements to resolve the debt.</t>
+  </si>
+  <si>
+    <t>I have been receiving several letters from your company demanding payment for a debt that I have already paid in full. I have provided proof of payment, but your team continues to harass me with calls and letters. Please update your records and stop contacting me about this matter.</t>
+  </si>
+  <si>
+    <t>I have received several phone calls from your team regarding a debt that I am unable to pay at this time. I have been struggling financially and do not have the means to make payments at this time. Please understand my situation and stop harassing me with phone calls and letters.</t>
+  </si>
+  <si>
+    <t>I have been receiving threatening phone calls and letters from your team regarding a debt that is not mine. I have provided evidence that this debt does not belong to me, but your team continues to harass me. Please stop all communication immediately.</t>
+  </si>
+  <si>
+    <t>I am writing to request that you stop contacting me about a debt that I have already paid in full. I have provided proof of payment, but your team continues to harass me with phone calls and letters. Please update your records and stop contacting me about this matter.</t>
+  </si>
+  <si>
+    <t>I have been receiving calls and letters from your team regarding a debt that has already been settled through a payment plan. I have made all of my payments on time, but your team continues to harass me. Please update your records and stop contacting me about this matter.</t>
+  </si>
+  <si>
+    <t>I am writing to dispute a debt that your team has been trying to collect from me. I have provided evidence that this debt has already been paid, but your team continues to harass me with phone calls and letters. Please stop contacting me about this matter.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,6 +99,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF374151"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -109,10 +131,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -427,58 +453,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4794FDC9-D60D-4F33-BEFA-1E3B5DA2DDAB}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.140625" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" style="3" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
+    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>